--- a/workspaces/mapping/mapping(42)-unbalanced-sigmoid_scheds.xlsx
+++ b/workspaces/mapping/mapping(42)-unbalanced-sigmoid_scheds.xlsx
@@ -539,13 +539,13 @@
         <v>0.6263157894736842</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>0.6473684210526316</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>0.6684210526315789</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>0.6894736842105263</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>0.7105263157894737</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>0.7315789473684211</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>0.7526315789473684</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>0.7736842105263158</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>0.7947368421052632</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>0.8157894736842105</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>0.8368421052631578</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>0.8578947368421053</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>0.9</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
